--- a/src/test/resources/testdataCMS/Login.xlsx
+++ b/src/test/resources/testdataCMS/Login.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="594">
   <si>
     <t>Codetru@007</t>
   </si>
@@ -1801,6 +1801,9 @@
   </si>
   <si>
     <t>urban@email.jjj.ee</t>
+  </si>
+  <si>
+    <t>ecowise@alphax.fr.nf</t>
   </si>
 </sst>
 </file>
@@ -1927,7 +1930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1949,6 +1952,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
@@ -2408,8 +2414,8 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="20" t="s">
-        <v>592</v>
+      <c r="A2" s="21" t="s">
+        <v>593</v>
       </c>
     </row>
   </sheetData>
